--- a/COLORED_ROSTERS.xlsx
+++ b/COLORED_ROSTERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.1.135.118\cap\2025\FLWG\FLWG IT\Completed Apps\FLWG_Summer_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CB8975-7CAC-4F62-9952-669BA831437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5989809-3F5A-43F2-9739-99EB5728DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF482784-5AF4-5E4F-B130-B4CE8AC6C730}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="486">
   <si>
     <t>C/SMSgt</t>
   </si>
@@ -1359,9 +1359,6 @@
   </si>
   <si>
     <t>Hoffman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Jackson</t>
@@ -1506,7 +1503,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1541,62 +1538,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1624,19 +1566,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1648,16 +1588,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{504CB533-8396-7B41-A91B-9BA944273CB9}"/>
   </cellStyles>
@@ -2000,10 +1932,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2012,20 +1944,16 @@
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="30.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1" t="s">
         <v>94</v>
@@ -2034,47 +1962,44 @@
         <v>95</v>
       </c>
       <c r="E1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" t="s">
         <v>485</v>
       </c>
-      <c r="F1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2" s="2">
         <v>730890</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C3" s="2">
         <v>738831</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>414</v>
@@ -2082,101 +2007,93 @@
       <c r="F3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="2">
         <v>731842</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C5" s="2">
         <v>728135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C6" s="2">
         <v>738884</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" s="2">
         <v>722891</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C8" s="2">
         <v>741216</v>
@@ -2185,70 +2102,64 @@
         <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C9" s="2">
         <v>723364</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C10" s="2">
         <v>734988</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C11" s="2">
         <v>676306</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>279</v>
@@ -2256,64 +2167,59 @@
       <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C12" s="2">
         <v>719106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13" s="2">
         <v>735002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C14" s="2">
         <v>727526</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>210</v>
@@ -2321,101 +2227,99 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C15" s="2">
         <v>720618</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C16" s="2">
         <v>733835</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C17" s="2">
         <v>730443</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C18" s="2">
         <v>735724</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C19" s="2">
         <v>740167</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -2424,55 +2328,52 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C20" s="2">
         <v>742570</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C21" s="2">
         <v>736506</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C22" s="2">
         <v>744530</v>
@@ -2487,12 +2388,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C23" s="2">
         <v>738771</v>
@@ -2507,12 +2408,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C24" s="2">
         <v>710433</v>
@@ -2527,12 +2428,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25" s="2">
         <v>731458</v>
@@ -2547,12 +2448,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C26" s="2">
         <v>732169</v>
@@ -2567,12 +2468,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C27" s="2">
         <v>713300</v>
@@ -2587,12 +2488,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C28" s="2">
         <v>731542</v>
@@ -2607,12 +2508,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C29" s="2">
         <v>731707</v>
@@ -2627,12 +2528,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" s="2">
         <v>740089</v>
@@ -2647,9 +2548,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B31" t="s">
         <v>425</v>
@@ -2667,9 +2568,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B32" t="s">
         <v>425</v>
@@ -2689,7 +2590,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B33" t="s">
         <v>425</v>
@@ -2709,7 +2610,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B34" t="s">
         <v>425</v>
@@ -2729,7 +2630,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B35" t="s">
         <v>425</v>
@@ -2749,7 +2650,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B36" t="s">
         <v>425</v>
@@ -2769,7 +2670,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B37" t="s">
         <v>425</v>
@@ -2789,7 +2690,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
         <v>425</v>
@@ -2809,7 +2710,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B39" t="s">
         <v>425</v>
@@ -2829,7 +2730,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B40" t="s">
         <v>425</v>
@@ -2849,7 +2750,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B41" t="s">
         <v>425</v>
@@ -2869,7 +2770,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B42" t="s">
         <v>425</v>
@@ -2889,7 +2790,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B43" t="s">
         <v>425</v>
@@ -2909,7 +2810,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B44" t="s">
         <v>425</v>
@@ -2929,7 +2830,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B45" t="s">
         <v>425</v>
@@ -2949,7 +2850,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B46" t="s">
         <v>407</v>
@@ -2969,7 +2870,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B47" t="s">
         <v>407</v>
@@ -2989,7 +2890,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B48" t="s">
         <v>407</v>
@@ -3009,7 +2910,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B49" t="s">
         <v>407</v>
@@ -3029,12 +2930,12 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B50" t="s">
         <v>407</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>744371</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -3049,7 +2950,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B51" t="s">
         <v>407</v>
@@ -3069,7 +2970,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B52" t="s">
         <v>407</v>
@@ -3089,7 +2990,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B53" t="s">
         <v>407</v>
@@ -3109,7 +3010,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B54" t="s">
         <v>407</v>
@@ -3129,7 +3030,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s">
         <v>407</v>
@@ -3149,7 +3050,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s">
         <v>407</v>
@@ -3169,7 +3070,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s">
         <v>407</v>
@@ -3189,7 +3090,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B58" t="s">
         <v>407</v>
@@ -3209,7 +3110,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s">
         <v>407</v>
@@ -3229,7 +3130,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s">
         <v>407</v>
@@ -3249,7 +3150,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s">
         <v>380</v>
@@ -3269,7 +3170,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s">
         <v>380</v>
@@ -3289,7 +3190,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s">
         <v>380</v>
@@ -3309,7 +3210,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B64" t="s">
         <v>380</v>
@@ -3329,7 +3230,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B65" t="s">
         <v>380</v>
@@ -3349,7 +3250,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B66" t="s">
         <v>380</v>
@@ -3369,7 +3270,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B67" t="s">
         <v>380</v>
@@ -3389,7 +3290,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s">
         <v>380</v>
@@ -3409,7 +3310,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s">
         <v>380</v>
@@ -3429,7 +3330,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s">
         <v>380</v>
@@ -3449,7 +3350,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s">
         <v>380</v>
@@ -3469,7 +3370,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B72" t="s">
         <v>380</v>
@@ -3489,7 +3390,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s">
         <v>380</v>
@@ -3509,7 +3410,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B74" t="s">
         <v>380</v>
@@ -3529,7 +3430,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s">
         <v>380</v>
@@ -3549,7 +3450,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B76" t="s">
         <v>380</v>
@@ -3569,7 +3470,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s">
         <v>380</v>
@@ -3589,7 +3490,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s">
         <v>352</v>
@@ -3609,7 +3510,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s">
         <v>352</v>
@@ -3629,7 +3530,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B80" t="s">
         <v>352</v>
@@ -3649,7 +3550,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B81" t="s">
         <v>352</v>
@@ -3669,7 +3570,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B82" t="s">
         <v>352</v>
@@ -3689,7 +3590,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B83" t="s">
         <v>352</v>
@@ -3709,7 +3610,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s">
         <v>352</v>
@@ -3729,7 +3630,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B85" t="s">
         <v>352</v>
@@ -3749,7 +3650,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s">
         <v>352</v>
@@ -3769,7 +3670,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B87" t="s">
         <v>352</v>
@@ -3789,7 +3690,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B88" t="s">
         <v>352</v>
@@ -3809,7 +3710,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B89" t="s">
         <v>352</v>
@@ -3829,7 +3730,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B90" t="s">
         <v>352</v>
@@ -3849,7 +3750,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B91" t="s">
         <v>330</v>
@@ -3869,7 +3770,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B92" t="s">
         <v>330</v>
@@ -3889,7 +3790,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B93" t="s">
         <v>330</v>
@@ -3909,12 +3810,12 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B94" t="s">
         <v>330</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <v>737258</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3929,7 +3830,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B95" t="s">
         <v>330</v>
@@ -3949,7 +3850,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B96" t="s">
         <v>330</v>
@@ -3969,7 +3870,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B97" t="s">
         <v>330</v>
@@ -3989,7 +3890,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B98" t="s">
         <v>330</v>
@@ -4009,7 +3910,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B99" t="s">
         <v>330</v>
@@ -4029,7 +3930,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B100" t="s">
         <v>330</v>
@@ -4049,7 +3950,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B101" t="s">
         <v>330</v>
@@ -4069,7 +3970,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B102" t="s">
         <v>330</v>
@@ -4089,7 +3990,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B103" t="s">
         <v>330</v>
@@ -4109,7 +4010,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B104" t="s">
         <v>330</v>
@@ -4129,7 +4030,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B105" t="s">
         <v>308</v>
@@ -4149,7 +4050,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B106" t="s">
         <v>308</v>
@@ -4169,7 +4070,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B107" t="s">
         <v>308</v>
@@ -4189,7 +4090,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B108" t="s">
         <v>308</v>
@@ -4209,7 +4110,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B109" t="s">
         <v>308</v>
@@ -4229,7 +4130,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B110" t="s">
         <v>308</v>
@@ -4249,7 +4150,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B111" t="s">
         <v>308</v>
@@ -4269,7 +4170,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B112" t="s">
         <v>308</v>
@@ -4283,13 +4184,13 @@
       <c r="E112" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B113" t="s">
         <v>308</v>
@@ -4309,7 +4210,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B114" t="s">
         <v>308</v>
@@ -4329,7 +4230,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B115" t="s">
         <v>308</v>
@@ -4349,7 +4250,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B116" t="s">
         <v>308</v>
@@ -4369,7 +4270,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B117" t="s">
         <v>308</v>
@@ -4389,7 +4290,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B118" t="s">
         <v>308</v>
@@ -4409,7 +4310,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B119" t="s">
         <v>308</v>
@@ -4429,7 +4330,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B120" t="s">
         <v>283</v>
@@ -4449,7 +4350,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B121" t="s">
         <v>283</v>
@@ -4469,7 +4370,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B122" t="s">
         <v>283</v>
@@ -4489,7 +4390,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B123" t="s">
         <v>283</v>
@@ -4509,7 +4410,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B124" t="s">
         <v>283</v>
@@ -4529,7 +4430,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B125" t="s">
         <v>283</v>
@@ -4549,7 +4450,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B126" t="s">
         <v>283</v>
@@ -4569,7 +4470,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B127" t="s">
         <v>283</v>
@@ -4589,7 +4490,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B128" t="s">
         <v>283</v>
@@ -4609,7 +4510,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B129" t="s">
         <v>283</v>
@@ -4629,7 +4530,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B130" t="s">
         <v>283</v>
@@ -4649,7 +4550,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B131" t="s">
         <v>283</v>
@@ -4669,7 +4570,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B132" t="s">
         <v>283</v>
@@ -4689,7 +4590,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B133" t="s">
         <v>283</v>
@@ -4709,7 +4610,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B134" t="s">
         <v>283</v>
@@ -4729,7 +4630,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B135" t="s">
         <v>283</v>
@@ -4749,7 +4650,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B136" t="s">
         <v>256</v>
@@ -4769,7 +4670,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B137" t="s">
         <v>256</v>
@@ -4789,7 +4690,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B138" t="s">
         <v>256</v>
@@ -4809,7 +4710,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B139" t="s">
         <v>256</v>
@@ -4829,7 +4730,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B140" t="s">
         <v>256</v>
@@ -4849,7 +4750,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B141" t="s">
         <v>256</v>
@@ -4869,7 +4770,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B142" t="s">
         <v>256</v>
@@ -4889,7 +4790,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B143" t="s">
         <v>256</v>
@@ -4909,7 +4810,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B144" t="s">
         <v>256</v>
@@ -4929,7 +4830,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B145" t="s">
         <v>256</v>
@@ -4949,7 +4850,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B146" t="s">
         <v>256</v>
@@ -4969,7 +4870,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B147" t="s">
         <v>256</v>
@@ -4989,7 +4890,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B148" t="s">
         <v>256</v>
@@ -5009,7 +4910,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B149" t="s">
         <v>256</v>
@@ -5029,7 +4930,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B150" t="s">
         <v>229</v>
@@ -5049,7 +4950,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B151" t="s">
         <v>229</v>
@@ -5069,7 +4970,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B152" t="s">
         <v>229</v>
@@ -5089,7 +4990,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B153" t="s">
         <v>229</v>
@@ -5109,7 +5010,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B154" t="s">
         <v>229</v>
@@ -5129,7 +5030,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B155" t="s">
         <v>229</v>
@@ -5149,7 +5050,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B156" t="s">
         <v>229</v>
@@ -5169,7 +5070,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B157" t="s">
         <v>229</v>
@@ -5189,7 +5090,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B158" t="s">
         <v>229</v>
@@ -5209,7 +5110,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B159" t="s">
         <v>229</v>
@@ -5229,7 +5130,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B160" t="s">
         <v>229</v>
@@ -5249,7 +5150,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B161" t="s">
         <v>229</v>
@@ -5269,7 +5170,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B162" t="s">
         <v>229</v>
@@ -5289,7 +5190,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B163" t="s">
         <v>229</v>
@@ -5309,7 +5210,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B164" t="s">
         <v>229</v>
@@ -5329,7 +5230,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B165" t="s">
         <v>203</v>
@@ -5349,7 +5250,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B166" t="s">
         <v>203</v>
@@ -5369,7 +5270,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B167" t="s">
         <v>203</v>
@@ -5389,7 +5290,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B168" t="s">
         <v>203</v>
@@ -5409,7 +5310,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B169" t="s">
         <v>203</v>
@@ -5429,7 +5330,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B170" t="s">
         <v>203</v>
@@ -5449,7 +5350,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B171" t="s">
         <v>203</v>
@@ -5469,7 +5370,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B172" t="s">
         <v>203</v>
@@ -5489,7 +5390,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B173" t="s">
         <v>203</v>
@@ -5509,7 +5410,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B174" t="s">
         <v>203</v>
@@ -5529,7 +5430,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B175" t="s">
         <v>203</v>
@@ -5549,7 +5450,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B176" t="s">
         <v>203</v>
@@ -5569,7 +5470,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B177" t="s">
         <v>203</v>
@@ -5589,7 +5490,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s">
         <v>203</v>
@@ -5609,7 +5510,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B179" t="s">
         <v>176</v>
@@ -5629,7 +5530,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B180" t="s">
         <v>176</v>
@@ -5649,7 +5550,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B181" t="s">
         <v>176</v>
@@ -5669,7 +5570,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B182" t="s">
         <v>176</v>
@@ -5689,7 +5590,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B183" t="s">
         <v>176</v>
@@ -5709,7 +5610,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B184" t="s">
         <v>176</v>
@@ -5729,7 +5630,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B185" t="s">
         <v>176</v>
@@ -5749,27 +5650,27 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B186" t="s">
         <v>176</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="3">
         <v>742539</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="E186" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="F186" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B187" t="s">
         <v>176</v>
@@ -5789,7 +5690,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B188" t="s">
         <v>176</v>
@@ -5809,7 +5710,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B189" t="s">
         <v>176</v>
@@ -5829,7 +5730,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B190" t="s">
         <v>176</v>
@@ -5849,7 +5750,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B191" t="s">
         <v>176</v>
@@ -5869,7 +5770,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B192" t="s">
         <v>176</v>
@@ -5889,7 +5790,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B193" t="s">
         <v>152</v>
@@ -5909,7 +5810,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B194" t="s">
         <v>152</v>
@@ -5929,7 +5830,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B195" t="s">
         <v>152</v>
@@ -5949,7 +5850,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B196" t="s">
         <v>152</v>
@@ -5969,7 +5870,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B197" t="s">
         <v>152</v>
@@ -5989,7 +5890,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B198" t="s">
         <v>152</v>
@@ -6009,7 +5910,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B199" t="s">
         <v>152</v>
@@ -6029,7 +5930,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B200" t="s">
         <v>152</v>
@@ -6049,7 +5950,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B201" t="s">
         <v>152</v>
@@ -6069,7 +5970,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s">
         <v>152</v>
@@ -6089,7 +5990,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B203" t="s">
         <v>152</v>
@@ -6109,7 +6010,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B204" t="s">
         <v>152</v>
@@ -6129,7 +6030,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B205" t="s">
         <v>152</v>
@@ -6149,7 +6050,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B206" t="s">
         <v>152</v>
@@ -6169,7 +6070,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B207" t="s">
         <v>126</v>
@@ -6189,7 +6090,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B208" t="s">
         <v>126</v>
@@ -6209,7 +6110,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B209" t="s">
         <v>126</v>
@@ -6229,7 +6130,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B210" t="s">
         <v>126</v>
@@ -6249,7 +6150,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B211" t="s">
         <v>126</v>
@@ -6269,7 +6170,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B212" t="s">
         <v>126</v>
@@ -6289,7 +6190,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B213" t="s">
         <v>126</v>
@@ -6309,7 +6210,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B214" t="s">
         <v>126</v>
@@ -6329,7 +6230,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B215" t="s">
         <v>126</v>
@@ -6349,7 +6250,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B216" t="s">
         <v>126</v>
@@ -6369,7 +6270,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B217" t="s">
         <v>126</v>
@@ -6389,7 +6290,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B218" t="s">
         <v>126</v>
@@ -6409,7 +6310,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B219" t="s">
         <v>126</v>
@@ -6429,7 +6330,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B220" t="s">
         <v>126</v>
@@ -7371,7 +7272,7 @@
       <c r="C267" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
